--- a/21 - Basics of Data Analytics - Fudamentals/Assignment4.xlsx
+++ b/21 - Basics of Data Analytics - Fudamentals/Assignment4.xlsx
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Vehicle model</t>
-  </si>
-  <si>
-    <t>Hours spent in gym</t>
-  </si>
-  <si>
-    <t>Weight loss in Kg</t>
   </si>
   <si>
     <t>Q2</t>
@@ -206,6 +200,12 @@
   <si>
     <t>Ice Cream Sales ($) (y)</t>
   </si>
+  <si>
+    <t>Hours spent in gym (x)</t>
+  </si>
+  <si>
+    <t>Weight loss in Kg (y)</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -520,15 +520,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -537,9 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -606,6 +645,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3014,7 +3070,7 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3302,1104 +3358,1111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB23"/>
+  <dimension ref="A2:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:X16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AB2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="M4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="W4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="X4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="5"/>
+      <c r="AB4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="AC4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="AA4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>(150+156)/2</f>
         <v>153</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>C5*D5</f>
         <v>306</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>D5-D13</f>
         <v>-17.5</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <f>F5*F5</f>
         <v>306.25</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>7</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>24</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>I5*J5</f>
         <v>168</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f>I5*I5</f>
         <v>49</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <f>J5*J5</f>
         <v>576</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>19</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>14.94</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <f t="shared" ref="R5:R21" si="0">P5*Q5</f>
         <v>283.86</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <f t="shared" ref="S5:S21" si="1">P5^2</f>
         <v>361</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="12">
         <f t="shared" ref="T5:T21" si="2">Q5^2</f>
         <v>223.20359999999999</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>14.2</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <v>215</v>
       </c>
-      <c r="Y5" s="8"/>
-      <c r="AA5" s="5">
+      <c r="Y5" s="6"/>
+      <c r="AB5" s="37">
         <v>100</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>(157+163)/2</f>
         <v>160</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" ref="E6:E10" si="3">C6*D6</f>
         <v>2240</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>D6-D13</f>
         <v>-10.5</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <f t="shared" ref="G6:G10" si="4">F6*F6</f>
         <v>110.25</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <v>14</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>34</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" ref="K6:K10" si="5">I6*J6</f>
         <v>476</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" ref="L6:L10" si="6">I6*I6</f>
         <v>196</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <f t="shared" ref="M6:M10" si="7">J6*J6</f>
         <v>1156</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>19</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>14.8</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>281.2</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="12">
         <f t="shared" si="2"/>
         <v>219.04000000000002</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="2">
         <v>325</v>
       </c>
-      <c r="Y6" s="8"/>
-      <c r="AA6" s="5">
+      <c r="Y6" s="6"/>
+      <c r="AB6" s="37">
         <v>75</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="38">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>(164+170)/2</f>
         <v>167</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="3"/>
         <v>2505</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>D7-D13</f>
         <v>-3.5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>24</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>45</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="5"/>
         <v>1080</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" si="6"/>
         <v>576</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <f t="shared" si="7"/>
         <v>2025</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>3</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>20</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>24.76</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="0"/>
         <v>495.20000000000005</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <f t="shared" si="2"/>
         <v>613.05760000000009</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>11.9</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <v>185</v>
       </c>
-      <c r="Y7" s="8"/>
-      <c r="AA7" s="5">
+      <c r="Y7" s="6"/>
+      <c r="AB7" s="37">
         <v>80</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>(171+177)/2</f>
         <v>174</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="3"/>
         <v>3480</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>D8-D13</f>
         <v>3.5</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f t="shared" si="4"/>
         <v>12.25</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>30</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>50</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>4</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>20</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>14.93</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f t="shared" si="0"/>
         <v>298.60000000000002</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="12">
         <f t="shared" si="2"/>
         <v>222.9049</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <v>15.2</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <v>332</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="AA8" s="5">
+      <c r="Y8" s="6"/>
+      <c r="AB8" s="37">
         <v>90</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="38">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>(178+184)/2</f>
         <v>181</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="3"/>
         <v>1267</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f>D9-D13</f>
         <v>10.5</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f t="shared" si="4"/>
         <v>110.25</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>45</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>61</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" si="5"/>
         <v>2745</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="6"/>
         <v>2025</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <f t="shared" si="7"/>
         <v>3721</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>5</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>20</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>13.95</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="12">
         <f t="shared" si="2"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="2">
         <v>18.5</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <v>406</v>
       </c>
-      <c r="Y9" s="8"/>
-      <c r="AA9" s="5">
+      <c r="Y9" s="6"/>
+      <c r="AB9" s="37">
         <v>60</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>(185+191)/2</f>
         <v>188</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="3"/>
         <v>1880</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f>D10-D13</f>
         <v>17.5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f t="shared" si="4"/>
         <v>306.25</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>57</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>69</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="5"/>
         <v>3933</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="6"/>
         <v>3249</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <f t="shared" si="7"/>
         <v>4761</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>6</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>21</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>17.88</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <f t="shared" si="0"/>
         <v>375.47999999999996</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="12">
         <f t="shared" si="2"/>
         <v>319.69439999999997</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>22.1</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <v>522</v>
       </c>
-      <c r="Y10" s="8"/>
-      <c r="AA10" s="5">
+      <c r="Y10" s="6"/>
+      <c r="AB10" s="37">
         <v>50</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28">
         <f>SUM(C5:C10)</f>
         <v>68</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <f>SUM(D5:D10)</f>
         <v>1023</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <f>SUM(E5:E10)</f>
         <v>11678</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31">
         <f>SUM(G5:G10)</f>
         <v>857.5</v>
       </c>
-      <c r="H11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="13">
         <f>SUM(I5:I10)</f>
         <v>177</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f>SUM(J5:J10)</f>
         <v>283</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f t="shared" ref="K11:M11" si="8">SUM(K5:K10)</f>
         <v>9902</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <f t="shared" si="8"/>
         <v>6995</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <f t="shared" si="8"/>
         <v>14739</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>7</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>21</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>11.65</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" si="0"/>
         <v>244.65</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="12">
         <f t="shared" si="2"/>
         <v>135.7225</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <v>412</v>
       </c>
-      <c r="Y11" s="8"/>
-      <c r="AA11" s="5">
+      <c r="Y11" s="6"/>
+      <c r="AB11" s="37">
         <v>25</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="36">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="34">
         <f>COUNT(I5:I10)</f>
         <v>6</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <f>COUNT(J5:J10)</f>
         <v>6</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="O12" s="13">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="11">
         <v>8</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>22</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <f t="shared" si="0"/>
         <v>393.79999999999995</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="12">
         <f t="shared" si="2"/>
         <v>320.40999999999997</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="2">
         <v>25.1</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="2">
         <v>614</v>
       </c>
-      <c r="Y12" s="8"/>
-      <c r="AA12" s="5">
+      <c r="Y12" s="6"/>
+      <c r="AB12" s="37">
         <v>40</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>D11/COUNT(D5:D10)</f>
         <v>170.5</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
         <f>AVERAGE(I5:I10)</f>
         <v>29.5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <f>AVERAGE(J5:J10)</f>
         <v>47.166666666666664</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="O13" s="13">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="O13" s="11">
         <v>9</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>23</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>21.5</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>494.5</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="12">
         <f t="shared" si="2"/>
         <v>462.25</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>23.4</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>544</v>
       </c>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA13" s="9">
-        <f>SUM(AA5:AA12)</f>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="39">
+        <f>SUM(AB5:AB12)</f>
         <v>520</v>
       </c>
-      <c r="AB13" s="9">
-        <f>SUM(AB5:AB12)</f>
+      <c r="AC13" s="40">
+        <f>SUM(AC5:AC12)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="9">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
         <f>MEDIAN(I5:I10)</f>
         <v>27</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <f>MEDIAN(J5:J10)</f>
         <v>47.5</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="O14" s="13">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="O14" s="11">
         <v>10</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>24</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>13.25</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="12">
         <f t="shared" si="2"/>
         <v>175.5625</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="2">
         <v>421</v>
       </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA14" s="9">
-        <f>AVERAGE(AA5:AA12)</f>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="39">
+        <f>AVERAGE(AB5:AB12)</f>
         <v>65</v>
       </c>
-      <c r="AB14" s="9">
-        <f>AVERAGE(AB5:AB12)</f>
+      <c r="AC14" s="40">
+        <f>AVERAGE(AC5:AC12)</f>
         <v>9.875</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="9" t="e">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="e">
         <f>_xlfn.MODE.MULT(I5:I10)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="9" t="e">
+      <c r="J15" s="7" t="e">
         <f>_xlfn.MODE.SNGL(J5:J10)</f>
         <v>#N/A</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="O15" s="13">
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="O15" s="11">
         <v>11</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>25</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>9.6</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="12">
         <f t="shared" si="2"/>
         <v>92.16</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="2">
         <v>22.6</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="2">
         <v>445</v>
       </c>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA15" s="9">
-        <f>MEDIAN(AA5:AA12)</f>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="39">
+        <f>MEDIAN(AB5:AB12)</f>
         <v>67.5</v>
       </c>
-      <c r="AB15" s="9">
-        <f>MEDIAN(AB5:AB12)</f>
+      <c r="AC15" s="40">
+        <f>MEDIAN(AC5:AC12)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O16" s="13">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="11">
         <v>12</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>17</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>13.95</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <f t="shared" si="0"/>
         <v>237.14999999999998</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="12">
         <f t="shared" si="2"/>
         <v>194.60249999999999</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <v>17.2</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="2">
         <v>408</v>
       </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16" s="9" t="e">
-        <f>_xlfn.MODE.MULT(AA5:AA12)</f>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="13" t="e">
+        <f>_xlfn.MODE.MULT(AB5:AB12)</f>
         <v>#N/A</v>
       </c>
-      <c r="AB16" s="9">
-        <f>_xlfn.MODE.MULT(AB5:AB12)</f>
+      <c r="AC16" s="15">
+        <f>_xlfn.MODE.MULT(AC5:AC12)</f>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <v>13</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>28</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>13.07</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <f t="shared" si="0"/>
         <v>365.96000000000004</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="12">
         <f t="shared" si="2"/>
         <v>170.82490000000001</v>
       </c>
-      <c r="V17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="9">
+      <c r="V17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" s="7">
         <f>SUM(W5:W16)</f>
         <v>224.1</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="7">
         <f>SUM(X5:X16)</f>
         <v>4829</v>
       </c>
     </row>
     <row r="18" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>14</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <v>32</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>6.6</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <f t="shared" si="0"/>
         <v>211.2</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="12">
         <f t="shared" si="2"/>
         <v>43.559999999999995</v>
       </c>
-      <c r="V18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="9">
+      <c r="V18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="7">
         <f>AVERAGE(W5:W16)</f>
         <v>18.675000000000001</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="7">
         <f>AVERAGE(X5:X16)</f>
         <v>402.41666666666669</v>
       </c>
     </row>
     <row r="19" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>15</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <v>33</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>9.41</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <f t="shared" si="0"/>
         <v>310.53000000000003</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="12">
         <f t="shared" si="2"/>
         <v>88.548100000000005</v>
       </c>
-      <c r="V19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="9">
+      <c r="V19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="7">
         <f>MEDIAN(W5:W16)</f>
         <v>18.3</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="7">
         <f>MEDIAN(X5:X16)</f>
         <v>410</v>
       </c>
     </row>
     <row r="20" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>16</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>34</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>5.87</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <f t="shared" si="0"/>
         <v>199.58</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <f t="shared" si="1"/>
         <v>1156</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="12">
         <f t="shared" si="2"/>
         <v>34.456900000000005</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="9" t="e">
+      <c r="V20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W20" s="7" t="e">
         <f>_xlfn.MODE.MULT(W5:W16)</f>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="9" t="e">
+      <c r="X20" s="7" t="e">
         <f>_xlfn.MODE.MULT(X5:X16)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="18">
+      <c r="O21" s="16">
         <v>17</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="4">
         <v>35</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="4">
         <v>6.49</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="4">
         <f t="shared" si="0"/>
         <v>227.15</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="4">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="17">
         <f t="shared" si="2"/>
         <v>42.120100000000001</v>
       </c>
     </row>
     <row r="22" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="21">
+      <c r="O22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="19">
         <f>SUM(P5:P21)</f>
         <v>413</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="19">
         <f>SUM(Q5:Q21)</f>
         <v>230.54999999999998</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="19">
         <f>SUM(R5:R21)</f>
         <v>5255.8599999999988</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="19">
         <f>SUM(S5:S21)</f>
         <v>10585</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="20">
         <f t="shared" ref="T22" si="9">SUM(T5:T21)</f>
         <v>3552.7205000000004</v>
       </c>
     </row>
     <row r="23" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="16">
+      <c r="O23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="14">
         <f>AVERAGE(P5:P21)</f>
         <v>24.294117647058822</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="14">
         <f t="shared" ref="Q23:T23" si="10">AVERAGE(Q5:Q21)</f>
         <v>13.561764705882352</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="14">
         <f t="shared" si="10"/>
         <v>309.16823529411755</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="14">
         <f t="shared" si="10"/>
         <v>622.64705882352939</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="15">
         <f t="shared" si="10"/>
         <v>208.98355882352942</v>
       </c>
